--- a/assets/uploads/files/evaluasi.xlsx
+++ b/assets/uploads/files/evaluasi.xlsx
@@ -28,7 +28,7 @@
     <t>PG              :</t>
   </si>
   <si>
-    <t>IP20</t>
+    <t>KP14</t>
   </si>
   <si>
     <t>NO.</t>

--- a/assets/uploads/files/evaluasi.xlsx
+++ b/assets/uploads/files/evaluasi.xlsx
@@ -371,9 +371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <b val="0"/>
@@ -412,7 +410,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,12 +426,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB8CCE4"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -526,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -581,17 +573,14 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -611,17 +600,8 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="14" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,7 +905,7 @@
   <dimension ref="A1:L150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -945,24 +925,24 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:12" customHeight="1" ht="15">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="18">
-        <v>42886</v>
+      <c r="D5" s="27">
+        <v>43313</v>
       </c>
     </row>
     <row r="6" spans="1:12" customHeight="1" ht="15">
@@ -974,42 +954,42 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28" t="s">
+      <c r="F7" s="26"/>
+      <c r="G7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="27"/>
+      <c r="K7" s="26"/>
     </row>
     <row r="8" spans="1:12" customHeight="1" ht="25.5">
-      <c r="C8" s="23"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1018,10 +998,10 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1577,10 +1557,10 @@
       <c r="K49" s="8"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="31"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -3036,6 +3016,13 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C136:D136"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C7:C8"/>
@@ -3049,13 +3036,6 @@
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C136:D136"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/uploads/files/evaluasi.xlsx
+++ b/assets/uploads/files/evaluasi.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
-    <t>LAPORAN EVALUASI GILING TAHUN 2018</t>
+    <t>LAPORAN EVALUASI GILING TAHUN 2019</t>
   </si>
   <si>
     <t>PERIODE  :</t>
@@ -28,7 +28,7 @@
     <t>PG              :</t>
   </si>
   <si>
-    <t>KP14</t>
+    <t>KP04</t>
   </si>
   <si>
     <t>NO.</t>
